--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Edn3</t>
+  </si>
+  <si>
+    <t>Ednrb</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Edn3</t>
-  </si>
-  <si>
-    <t>Ednrb</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1264883333333333</v>
+        <v>0.06003666666666666</v>
       </c>
       <c r="H2">
-        <v>0.379465</v>
+        <v>0.18011</v>
       </c>
       <c r="I2">
-        <v>0.02599875961803032</v>
+        <v>0.007162610180657564</v>
       </c>
       <c r="J2">
-        <v>0.02599875961803032</v>
+        <v>0.007162610180657565</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.46535033333333</v>
+        <v>28.25464766666667</v>
       </c>
       <c r="N2">
-        <v>79.396051</v>
+        <v>84.763943</v>
       </c>
       <c r="O2">
-        <v>0.3009886585509795</v>
+        <v>0.3168758800036845</v>
       </c>
       <c r="P2">
-        <v>0.3009886585509795</v>
+        <v>0.3168758800036845</v>
       </c>
       <c r="Q2">
-        <v>3.347558054746111</v>
+        <v>1.696314863747778</v>
       </c>
       <c r="R2">
-        <v>30.128022492715</v>
+        <v>15.26683377373</v>
       </c>
       <c r="S2">
-        <v>0.007825331781420322</v>
+        <v>0.002269658404119215</v>
       </c>
       <c r="T2">
-        <v>0.007825331781420322</v>
+        <v>0.002269658404119215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1264883333333333</v>
+        <v>0.06003666666666666</v>
       </c>
       <c r="H3">
-        <v>0.379465</v>
+        <v>0.18011</v>
       </c>
       <c r="I3">
-        <v>0.02599875961803032</v>
+        <v>0.007162610180657564</v>
       </c>
       <c r="J3">
-        <v>0.02599875961803032</v>
+        <v>0.007162610180657565</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.140155</v>
       </c>
       <c r="O3">
-        <v>0.000531324479087915</v>
+        <v>0.0005239461189519747</v>
       </c>
       <c r="P3">
-        <v>0.000531324479087915</v>
+        <v>0.0005239461189519747</v>
       </c>
       <c r="Q3">
-        <v>0.005909324119444445</v>
+        <v>0.002804813005555555</v>
       </c>
       <c r="R3">
-        <v>0.053183917075</v>
+        <v>0.02524331705</v>
       </c>
       <c r="S3">
-        <v>1.381377741098188E-05</v>
+        <v>3.752821805721433E-06</v>
       </c>
       <c r="T3">
-        <v>1.381377741098188E-05</v>
+        <v>3.752821805721434E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1264883333333333</v>
+        <v>0.06003666666666666</v>
       </c>
       <c r="H4">
-        <v>0.379465</v>
+        <v>0.18011</v>
       </c>
       <c r="I4">
-        <v>0.02599875961803032</v>
+        <v>0.007162610180657564</v>
       </c>
       <c r="J4">
-        <v>0.02599875961803032</v>
+        <v>0.007162610180657565</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.41599633333334</v>
+        <v>60.86492733333333</v>
       </c>
       <c r="N4">
-        <v>184.247989</v>
+        <v>182.594782</v>
       </c>
       <c r="O4">
-        <v>0.6984800169699326</v>
+        <v>0.6826001738773636</v>
       </c>
       <c r="P4">
-        <v>0.6984800169699326</v>
+        <v>0.6826001738773636</v>
       </c>
       <c r="Q4">
-        <v>7.768407016209446</v>
+        <v>3.654127354002222</v>
       </c>
       <c r="R4">
-        <v>69.91566314588501</v>
+        <v>32.88714618602</v>
       </c>
       <c r="S4">
-        <v>0.01815961405919901</v>
+        <v>0.004889198954732628</v>
       </c>
       <c r="T4">
-        <v>0.01815961405919901</v>
+        <v>0.004889198954732629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.06003666666666666</v>
+        <v>8.321916999999999</v>
       </c>
       <c r="H5">
-        <v>0.18011</v>
+        <v>24.965751</v>
       </c>
       <c r="I5">
-        <v>0.01234010144493811</v>
+        <v>0.9928373898193424</v>
       </c>
       <c r="J5">
-        <v>0.01234010144493811</v>
+        <v>0.9928373898193424</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.46535033333333</v>
+        <v>28.25464766666667</v>
       </c>
       <c r="N5">
-        <v>79.396051</v>
+        <v>84.763943</v>
       </c>
       <c r="O5">
-        <v>0.3009886585509795</v>
+        <v>0.3168758800036845</v>
       </c>
       <c r="P5">
-        <v>0.3009886585509795</v>
+        <v>0.3168758800036845</v>
       </c>
       <c r="Q5">
-        <v>1.588891416178889</v>
+        <v>235.1328327462437</v>
       </c>
       <c r="R5">
-        <v>14.30002274561</v>
+        <v>2116.195494716193</v>
       </c>
       <c r="S5">
-        <v>0.003714230580294926</v>
+        <v>0.3146062215995653</v>
       </c>
       <c r="T5">
-        <v>0.003714230580294926</v>
+        <v>0.3146062215995653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06003666666666666</v>
+        <v>8.321916999999999</v>
       </c>
       <c r="H6">
-        <v>0.18011</v>
+        <v>24.965751</v>
       </c>
       <c r="I6">
-        <v>0.01234010144493811</v>
+        <v>0.9928373898193424</v>
       </c>
       <c r="J6">
-        <v>0.01234010144493811</v>
+        <v>0.9928373898193424</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.140155</v>
       </c>
       <c r="O6">
-        <v>0.000531324479087915</v>
+        <v>0.0005239461189519747</v>
       </c>
       <c r="P6">
-        <v>0.000531324479087915</v>
+        <v>0.0005239461189519747</v>
       </c>
       <c r="Q6">
-        <v>0.002804813005555555</v>
+        <v>0.3887860923783333</v>
       </c>
       <c r="R6">
-        <v>0.02524331705</v>
+        <v>3.499074831405</v>
       </c>
       <c r="S6">
-        <v>6.556597972123769E-06</v>
+        <v>0.0005201932971462533</v>
       </c>
       <c r="T6">
-        <v>6.556597972123769E-06</v>
+        <v>0.0005201932971462533</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06003666666666666</v>
+        <v>8.321916999999999</v>
       </c>
       <c r="H7">
-        <v>0.18011</v>
+        <v>24.965751</v>
       </c>
       <c r="I7">
-        <v>0.01234010144493811</v>
+        <v>0.9928373898193424</v>
       </c>
       <c r="J7">
-        <v>0.01234010144493811</v>
+        <v>0.9928373898193424</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>61.41599633333334</v>
+        <v>60.86492733333333</v>
       </c>
       <c r="N7">
-        <v>184.247989</v>
+        <v>182.594782</v>
       </c>
       <c r="O7">
-        <v>0.6984800169699326</v>
+        <v>0.6826001738773636</v>
       </c>
       <c r="P7">
-        <v>0.6984800169699326</v>
+        <v>0.6826001738773636</v>
       </c>
       <c r="Q7">
-        <v>3.687211699865556</v>
+        <v>506.5128734790313</v>
       </c>
       <c r="R7">
-        <v>33.18490529879</v>
+        <v>4558.615861311282</v>
       </c>
       <c r="S7">
-        <v>0.008619314266671061</v>
+        <v>0.677710974922631</v>
       </c>
       <c r="T7">
-        <v>0.008619314266671061</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>4.678643</v>
-      </c>
-      <c r="H8">
-        <v>14.035929</v>
-      </c>
-      <c r="I8">
-        <v>0.9616611389370316</v>
-      </c>
-      <c r="J8">
-        <v>0.9616611389370315</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>26.46535033333333</v>
-      </c>
-      <c r="N8">
-        <v>79.396051</v>
-      </c>
-      <c r="O8">
-        <v>0.3009886585509795</v>
-      </c>
-      <c r="P8">
-        <v>0.3009886585509795</v>
-      </c>
-      <c r="Q8">
-        <v>123.8219260795977</v>
-      </c>
-      <c r="R8">
-        <v>1114.397334716379</v>
-      </c>
-      <c r="S8">
-        <v>0.2894490961892643</v>
-      </c>
-      <c r="T8">
-        <v>0.2894490961892642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>4.678643</v>
-      </c>
-      <c r="H9">
-        <v>14.035929</v>
-      </c>
-      <c r="I9">
-        <v>0.9616611389370316</v>
-      </c>
-      <c r="J9">
-        <v>0.9616611389370315</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.04671833333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.140155</v>
-      </c>
-      <c r="O9">
-        <v>0.000531324479087915</v>
-      </c>
-      <c r="P9">
-        <v>0.000531324479087915</v>
-      </c>
-      <c r="Q9">
-        <v>0.2185784032216667</v>
-      </c>
-      <c r="R9">
-        <v>1.967205628995</v>
-      </c>
-      <c r="S9">
-        <v>0.0005109541037048094</v>
-      </c>
-      <c r="T9">
-        <v>0.0005109541037048093</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>4.678643</v>
-      </c>
-      <c r="H10">
-        <v>14.035929</v>
-      </c>
-      <c r="I10">
-        <v>0.9616611389370316</v>
-      </c>
-      <c r="J10">
-        <v>0.9616611389370315</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>61.41599633333334</v>
-      </c>
-      <c r="N10">
-        <v>184.247989</v>
-      </c>
-      <c r="O10">
-        <v>0.6984800169699326</v>
-      </c>
-      <c r="P10">
-        <v>0.6984800169699326</v>
-      </c>
-      <c r="Q10">
-        <v>287.3435213329757</v>
-      </c>
-      <c r="R10">
-        <v>2586.091691996781</v>
-      </c>
-      <c r="S10">
-        <v>0.6717010886440625</v>
-      </c>
-      <c r="T10">
-        <v>0.6717010886440624</v>
+        <v>0.677710974922631</v>
       </c>
     </row>
   </sheetData>
